--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:56:15+00:00</t>
+    <t>2022-01-07T09:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T09:52:39+00:00</t>
+    <t>2022-01-14T15:28:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$23</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T15:28:45+00:00</t>
+    <t>2022-01-17T09:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>Status of coprescription</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-co-prescription-status</t>
   </si>
   <si>
     <t>base64Binary
@@ -735,7 +744,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -768,7 +777,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="75.63671875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -2300,23 +2309,25 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>123</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2325,24 +2336,22 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>74</v>
@@ -2384,27 +2393,27 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2415,7 +2424,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2427,13 +2436,13 @@
         <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2484,26 +2493,628 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AB20" s="2"/>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI17" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AJ17" t="s" s="2">
+      <c r="AJ20" t="s" s="2">
         <v>108</v>
       </c>
     </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ17">
+  <autoFilter ref="A1:AJ23">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2513,7 +3124,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI16">
+  <conditionalFormatting sqref="A2:AI22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T09:35:45+00:00</t>
+    <t>2022-01-17T15:12:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T15:12:34+00:00</t>
+    <t>2022-01-18T14:53:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:53:37+00:00</t>
+    <t>2022-01-18T14:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:54:46+00:00</t>
+    <t>2022-01-19T12:18:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T12:18:41+00:00</t>
+    <t>2022-01-20T09:35:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-20T09:35:42+00:00</t>
+    <t>2022-01-25T15:16:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T15:16:25+00:00</t>
+    <t>2022-02-01T15:37:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-01T15:37:33+00:00</t>
+    <t>2022-02-08T09:26:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:26:27+00:00</t>
+    <t>2022-02-08T09:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:35:25+00:00</t>
+    <t>2022-02-08T09:37:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T09:37:29+00:00</t>
+    <t>2022-02-08T10:01:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:01:45+00:00</t>
+    <t>2022-02-08T10:08:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T10:08:35+00:00</t>
+    <t>2022-02-08T13:47:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T13:47:48+00:00</t>
+    <t>2022-02-08T14:21:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:21:10+00:00</t>
+    <t>2022-02-10T10:05:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:05:03+00:00</t>
+    <t>2022-02-10T10:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:07:35+00:00</t>
+    <t>2022-02-10T10:17:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:17:28+00:00</t>
+    <t>2022-02-10T10:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T10:18:13+00:00</t>
+    <t>2022-02-10T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:14:34+00:00</t>
+    <t>2022-02-10T14:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T14:16:39+00:00</t>
+    <t>2022-02-14T08:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:27:15+00:00</t>
+    <t>2022-02-14T08:33:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T08:33:39+00:00</t>
+    <t>2022-02-14T09:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:12:03+00:00</t>
+    <t>2022-02-14T09:13:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T09:13:01+00:00</t>
+    <t>2022-02-14T10:40:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:40:00+00:00</t>
+    <t>2022-02-14T10:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T10:44:55+00:00</t>
+    <t>2022-02-14T11:05:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:09+00:00</t>
+    <t>2022-02-14T11:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-14T11:05:42+00:00</t>
+    <t>2022-02-17T07:59:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:14+00:00</t>
+    <t>2022-02-17T07:59:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:59:49+00:00</t>
+    <t>2022-02-17T10:42:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:28+00:00</t>
+    <t>2022-02-17T10:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T10:42:34+00:00</t>
+    <t>2022-02-22T14:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:45:52+00:00</t>
+    <t>2022-02-22T16:17:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:17:43+00:00</t>
+    <t>2022-02-22T16:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:23:19+00:00</t>
+    <t>2022-02-23T09:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T09:46:03+00:00</t>
+    <t>2022-02-23T15:29:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:29:02+00:00</t>
+    <t>2022-02-23T15:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-23T15:34:51+00:00</t>
+    <t>2022-03-02T14:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T14:57:26+00:00</t>
+    <t>2022-03-23T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-co-prescriber</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/StructureDefinition/be-co-prescriber</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T15:53:34+00:00</t>
+    <t>2022-05-03T10:04:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -355,7 +355,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -404,7 +404,7 @@
     <t>Status of coprescription</t>
   </si>
   <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/ValueSet/be-vs-co-prescription-status</t>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
   </si>
   <si>
     <t>base64Binary
@@ -777,7 +777,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="75.63671875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$29</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -282,21 +282,14 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -321,9 +314,6 @@
     <t>Reference to practitioner</t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
@@ -405,6 +395,12 @@
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
+  </si>
+  <si>
+    <t>Importance of the signature for the prescription</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescriber-choice</t>
   </si>
   <si>
     <t>base64Binary
@@ -744,7 +740,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -755,7 +751,7 @@
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -763,7 +759,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.97265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1107,11 +1103,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1129,14 +1125,12 @@
         <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>74</v>
@@ -1173,19 +1167,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1200,7 +1194,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1208,7 +1202,7 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
@@ -1221,7 +1215,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1233,10 +1227,10 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1287,7 +1281,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1307,7 +1301,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1407,7 +1401,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1436,7 +1430,7 @@
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1475,19 +1469,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1507,7 +1501,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1530,16 +1524,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1547,7 +1541,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1589,7 +1583,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -1604,12 +1598,12 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1632,13 +1626,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1689,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1701,10 +1695,10 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1712,20 +1706,20 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1737,10 +1731,10 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1791,7 +1785,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1811,7 +1805,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1911,7 +1905,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1940,7 +1934,7 @@
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1979,19 +1973,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2011,7 +2005,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2034,16 +2028,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2051,7 +2045,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2093,7 +2087,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -2108,12 +2102,12 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2121,7 +2115,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2136,13 +2130,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2181,17 +2175,17 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2203,25 +2197,25 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2236,13 +2230,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2269,11 +2263,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2291,7 +2285,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2303,10 +2297,10 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -2314,20 +2308,20 @@
         <v>86</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2339,10 +2333,10 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2393,7 +2387,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2413,7 +2407,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2513,7 +2507,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2542,7 +2536,7 @@
         <v>29</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2581,19 +2575,19 @@
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB18" t="s" s="2">
+      <c r="AE18" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2613,7 +2607,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2636,16 +2630,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2653,7 +2647,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>74</v>
@@ -2695,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -2710,12 +2704,12 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2723,7 +2717,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>80</v>
@@ -2738,13 +2732,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2783,17 +2777,17 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -2805,25 +2799,25 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>80</v>
@@ -2838,13 +2832,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2871,11 +2865,11 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -2893,7 +2887,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -2905,17 +2899,19 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -2927,7 +2923,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -2936,24 +2932,22 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>106</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>74</v>
@@ -2995,27 +2989,27 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3026,7 +3020,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3038,13 +3032,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3095,7 +3089,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3107,14 +3101,616 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J26" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AJ23" t="s" s="2">
+      <c r="K26" t="s" s="2">
         <v>108</v>
       </c>
+      <c r="L26" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" hidden="true">
+      <c r="A27" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" hidden="true">
+      <c r="A28" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P28" s="2"/>
+      <c r="Q28" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ23">
+  <autoFilter ref="A1:AJ29">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3124,7 +3720,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI22">
+  <conditionalFormatting sqref="A2:AI28">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$23</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -311,7 +311,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Reference to practitioner</t>
+    <t>Reference to practitionerrole</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -345,7 +345,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -362,10 +362,10 @@
 </t>
   </si>
   <si>
-    <t>coprescriberType</t>
-  </si>
-  <si>
-    <t>Discipline of coprescriber</t>
+    <t>coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>Status of coprescription</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -383,15 +383,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>coprescriptionStatus</t>
-  </si>
-  <si>
-    <t>Status of coprescription</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
@@ -740,7 +731,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1209,7 +1200,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>80</v>
@@ -2308,7 +2299,7 @@
         <v>86</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
@@ -2333,7 +2324,7 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>89</v>
@@ -2647,7 +2638,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>74</v>
@@ -2869,7 +2860,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -2905,13 +2896,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>74</v>
       </c>
@@ -2923,7 +2912,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>74</v>
@@ -2932,22 +2921,24 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>74</v>
@@ -2989,27 +2980,27 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3020,7 +3011,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3032,13 +3023,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3089,7 +3080,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3101,616 +3092,14 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" hidden="true">
-      <c r="A25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="26" hidden="true">
-      <c r="A26" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AB26" s="2"/>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X27" s="2"/>
-      <c r="Y27" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ29">
+  <autoFilter ref="A1:AJ23">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3720,7 +3109,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI28">
+  <conditionalFormatting sqref="A2:AI22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -741,41 +741,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.97265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.046875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="83.05078125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="127">
   <si>
     <t>Property</t>
   </si>
@@ -282,14 +282,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -311,7 +318,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Reference to practitionerrole</t>
+    <t>Reference to practitioner</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -345,7 +355,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -362,10 +372,10 @@
 </t>
   </si>
   <si>
-    <t>coprescriptionStatus</t>
-  </si>
-  <si>
-    <t>Status of coprescription</t>
+    <t>coprescriberType</t>
+  </si>
+  <si>
+    <t>Discipline of coprescriber</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -385,13 +395,16 @@
     <t>required</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>Status of coprescription</t>
+  </si>
+  <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
-  </si>
-  <si>
-    <t>Importance of the signature for the prescription</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescriber-choice</t>
   </si>
   <si>
     <t>base64Binary
@@ -742,7 +755,7 @@
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -750,7 +763,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1094,11 +1107,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1116,12 +1129,14 @@
         <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>91</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>74</v>
@@ -1158,19 +1173,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1185,7 +1200,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
@@ -1193,20 +1208,20 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1218,10 +1233,10 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1272,7 +1287,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1292,7 +1307,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1392,7 +1407,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1421,7 +1436,7 @@
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1460,19 +1475,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1492,7 +1507,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1515,16 +1530,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1532,7 +1547,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1574,7 +1589,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -1589,12 +1604,12 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1617,13 +1632,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1674,7 +1689,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1686,10 +1701,10 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10">
@@ -1697,20 +1712,20 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1722,10 +1737,10 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1776,7 +1791,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1796,7 +1811,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1896,7 +1911,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1925,7 +1940,7 @@
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1964,19 +1979,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -1996,7 +2011,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2019,16 +2034,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2036,7 +2051,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2078,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -2093,12 +2108,12 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2106,7 +2121,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2121,13 +2136,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2166,17 +2181,17 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2188,25 +2203,25 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2221,13 +2236,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2254,11 +2269,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2276,7 +2291,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2288,10 +2303,10 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16">
@@ -2299,20 +2314,20 @@
         <v>86</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2324,10 +2339,10 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2378,7 +2393,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2398,7 +2413,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2498,7 +2513,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2527,7 +2542,7 @@
         <v>29</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2566,19 +2581,19 @@
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2598,7 +2613,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2621,16 +2636,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2638,7 +2653,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>74</v>
@@ -2680,7 +2695,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -2695,12 +2710,12 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2708,7 +2723,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>80</v>
@@ -2723,13 +2738,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2768,17 +2783,17 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -2790,25 +2805,25 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>80</v>
@@ -2823,13 +2838,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2856,11 +2871,11 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -2878,7 +2893,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -2890,15 +2905,15 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2921,16 +2936,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -2980,7 +2995,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -2995,12 +3010,12 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3023,13 +3038,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3080,7 +3095,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3092,10 +3107,10 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -282,21 +282,14 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -318,10 +311,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Reference to practitioner</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Reference to practitionerrole</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -355,7 +345,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -372,10 +362,10 @@
 </t>
   </si>
   <si>
-    <t>coprescriberType</t>
-  </si>
-  <si>
-    <t>Discipline of coprescriber</t>
+    <t>coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>Status of coprescription</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -395,16 +385,13 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>coprescriptionStatus</t>
-  </si>
-  <si>
-    <t>Status of coprescription</t>
-  </si>
-  <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
+  </si>
+  <si>
+    <t>Importance of the signature for the prescription</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescriber-choice</t>
   </si>
   <si>
     <t>base64Binary
@@ -755,7 +742,7 @@
   <cols>
     <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -763,7 +750,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.26171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.9765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1107,11 +1094,11 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1129,14 +1116,12 @@
         <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
+      <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>74</v>
@@ -1173,19 +1158,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1200,7 +1185,7 @@
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1208,20 +1193,20 @@
         <v>86</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>74</v>
@@ -1233,10 +1218,10 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1287,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1307,7 +1292,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1407,7 +1392,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1436,7 +1421,7 @@
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1475,19 +1460,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1507,7 +1492,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1530,16 +1515,16 @@
         <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1547,7 +1532,7 @@
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>74</v>
@@ -1589,7 +1574,7 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>80</v>
@@ -1604,12 +1589,12 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1632,13 +1617,13 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1689,7 +1674,7 @@
         <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1701,10 +1686,10 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1712,20 +1697,20 @@
         <v>86</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>74</v>
@@ -1737,10 +1722,10 @@
         <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1791,7 +1776,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1811,7 +1796,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1911,7 +1896,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1940,7 +1925,7 @@
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1979,19 +1964,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2011,7 +1996,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2034,16 +2019,16 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2051,7 +2036,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>74</v>
@@ -2093,7 +2078,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>80</v>
@@ -2108,12 +2093,12 @@
         <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2121,7 +2106,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>80</v>
@@ -2136,13 +2121,13 @@
         <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2181,17 +2166,17 @@
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2203,25 +2188,25 @@
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -2236,13 +2221,13 @@
         <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2269,11 +2254,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2291,7 +2276,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2303,10 +2288,10 @@
         <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -2314,20 +2299,20 @@
         <v>86</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>74</v>
@@ -2339,10 +2324,10 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2393,7 +2378,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2413,7 +2398,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2513,7 +2498,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2542,7 +2527,7 @@
         <v>29</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2581,19 +2566,19 @@
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="AB18" t="s" s="2">
+      <c r="AE18" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2613,7 +2598,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2636,16 +2621,16 @@
         <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2653,7 +2638,7 @@
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R19" t="s" s="2">
         <v>74</v>
@@ -2695,7 +2680,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>80</v>
@@ -2710,12 +2695,12 @@
         <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2723,7 +2708,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>80</v>
@@ -2738,13 +2723,13 @@
         <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2783,17 +2768,17 @@
         <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -2805,25 +2790,25 @@
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>80</v>
@@ -2838,13 +2823,13 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2871,11 +2856,11 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -2893,7 +2878,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -2905,15 +2890,15 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2936,16 +2921,16 @@
         <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -2995,7 +2980,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>80</v>
@@ -3010,12 +2995,12 @@
         <v>74</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3038,13 +3023,13 @@
         <v>74</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3095,7 +3080,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3107,10 +3092,10 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -253,56 +253,56 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>coprescriber</t>
@@ -982,7 +982,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>74</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1001,25 +1001,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1070,13 +1070,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1085,12 +1085,12 @@
         <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>76</v>
@@ -1113,13 +1113,13 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1158,19 +1158,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1182,7 +1182,7 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
@@ -1190,7 +1190,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>94</v>
@@ -1200,10 +1200,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>95</v>
@@ -1215,13 +1215,13 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1272,7 +1272,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1284,7 +1284,7 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
@@ -1303,25 +1303,25 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1372,13 +1372,13 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>74</v>
@@ -1387,7 +1387,7 @@
         <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" hidden="true">
@@ -1415,13 +1415,13 @@
         <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1460,19 +1460,19 @@
         <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB7" t="s" s="2">
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
+      <c r="AE7" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
@@ -1484,7 +1484,7 @@
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>74</v>
@@ -1500,10 +1500,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>74</v>
@@ -1577,10 +1577,10 @@
         <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>74</v>
@@ -1605,7 +1605,7 @@
         <v>75</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>74</v>
@@ -1680,7 +1680,7 @@
         <v>75</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>74</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>112</v>
@@ -1704,10 +1704,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>95</v>
@@ -1719,13 +1719,13 @@
         <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1776,7 +1776,7 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -1788,7 +1788,7 @@
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
@@ -1807,25 +1807,25 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s" s="2">
+      <c r="K11" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1876,13 +1876,13 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
@@ -1891,7 +1891,7 @@
         <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -1919,13 +1919,13 @@
         <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1964,19 +1964,19 @@
         <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB12" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB12" t="s" s="2">
+      <c r="AC12" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD12" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD12" t="s" s="2">
+      <c r="AE12" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -1988,7 +1988,7 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
@@ -2004,10 +2004,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2081,10 +2081,10 @@
         <v>104</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
@@ -2106,10 +2106,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2182,7 +2182,7 @@
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2206,10 +2206,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -2282,7 +2282,7 @@
         <v>75</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>74</v>
@@ -2296,7 +2296,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>118</v>
@@ -2306,10 +2306,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>95</v>
@@ -2321,13 +2321,13 @@
         <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>120</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2378,7 +2378,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2390,7 +2390,7 @@
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>74</v>
@@ -2409,25 +2409,25 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s" s="2">
+      <c r="K17" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2478,13 +2478,13 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
@@ -2493,7 +2493,7 @@
         <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" hidden="true">
@@ -2521,13 +2521,13 @@
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>29</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2566,19 +2566,19 @@
         <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB18" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB18" t="s" s="2">
+      <c r="AC18" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD18" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD18" t="s" s="2">
+      <c r="AE18" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2590,7 +2590,7 @@
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
@@ -2606,10 +2606,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -2683,10 +2683,10 @@
         <v>104</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
@@ -2708,10 +2708,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -2784,7 +2784,7 @@
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
@@ -2808,10 +2808,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -2884,7 +2884,7 @@
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -2906,10 +2906,10 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -2983,10 +2983,10 @@
         <v>104</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3086,7 +3086,7 @@
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$23</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -305,6 +308,9 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>Extension.extension:coprescriber</t>
+  </si>
+  <si>
     <t>coprescriber</t>
   </si>
   <si>
@@ -314,10 +320,19 @@
     <t>Reference to practitionerrole</t>
   </si>
   <si>
+    <t>Extension.extension:coprescriber.id</t>
+  </si>
+  <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
+    <t>Extension.extension:coprescriber.extension</t>
+  </si>
+  <si>
     <t>Extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriber.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -342,6 +357,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Extension.extension:coprescriber.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
@@ -362,10 +380,25 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:coprescriptionStatus</t>
+  </si>
+  <si>
     <t>coprescriptionStatus</t>
   </si>
   <si>
     <t>Status of coprescription</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -379,6 +412,9 @@
     <t>closed</t>
   </si>
   <si>
+    <t>Extension.extension:coprescriptionStatus.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>valueCodeableConcept</t>
   </si>
   <si>
@@ -388,7 +424,25 @@
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
   </si>
   <si>
+    <t>Extension.extension:required</t>
+  </si>
+  <si>
     <t>Importance of the signature for the prescription</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescriber-choice</t>
@@ -731,7 +785,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ23"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -740,42 +794,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="69.06640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.9765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.05078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="83.05078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -887,93 +941,96 @@
       <c r="AJ1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
@@ -982,38 +1039,41 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>81</v>
@@ -1021,301 +1081,310 @@
       <c r="L3" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
         <v>86</v>
       </c>
+      <c r="B4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>81</v>
@@ -1323,503 +1392,518 @@
       <c r="L6" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M7" s="2"/>
+      <c r="M7" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>94</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK9" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>81</v>
@@ -1827,601 +1911,619 @@
       <c r="L11" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AB14" s="2"/>
-      <c r="AC14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AE14" t="s" s="2">
+      <c r="AG14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y15" s="2"/>
+      <c r="Z15" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X15" s="2"/>
-      <c r="Y15" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AK15" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>85</v>
+        <v>132</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>81</v>
@@ -2429,677 +2531,698 @@
       <c r="L17" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>85</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="M18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
         <v>90</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M20" s="2"/>
+      <c r="M20" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AB20" s="2"/>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>105</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="C21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AK21" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>105</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>75</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>105</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ23">
+  <autoFilter ref="A1:AK23">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -973,7 +977,7 @@
         <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>7</v>
@@ -1039,7 +1043,7 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>75</v>
@@ -1050,10 +1054,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1064,7 +1068,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>75</v>
@@ -1076,13 +1080,13 @@
         <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1133,13 +1137,13 @@
         <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>75</v>
@@ -1148,15 +1152,15 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1164,7 +1168,7 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -1179,13 +1183,13 @@
         <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1224,19 +1228,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1248,7 +1252,7 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>75</v>
@@ -1256,26 +1260,26 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>75</v>
@@ -1284,13 +1288,13 @@
         <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1341,7 +1345,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1353,7 +1357,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1361,10 +1365,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1375,7 +1379,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>75</v>
@@ -1387,13 +1391,13 @@
         <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1444,13 +1448,13 @@
         <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>75</v>
@@ -1459,15 +1463,15 @@
         <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1490,13 +1494,13 @@
         <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1535,19 +1539,19 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1559,7 +1563,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -1567,10 +1571,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1578,10 +1582,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>75</v>
@@ -1593,16 +1597,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1610,7 +1614,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -1652,13 +1656,13 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>75</v>
@@ -1667,15 +1671,15 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1686,7 +1690,7 @@
         <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>75</v>
@@ -1698,13 +1702,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1755,46 +1759,46 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>75</v>
@@ -1803,13 +1807,13 @@
         <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1860,7 +1864,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1872,7 +1876,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1880,10 +1884,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1894,7 +1898,7 @@
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>75</v>
@@ -1906,13 +1910,13 @@
         <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1963,13 +1967,13 @@
         <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>75</v>
@@ -1978,15 +1982,15 @@
         <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2009,13 +2013,13 @@
         <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2054,19 +2058,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2078,7 +2082,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -2086,10 +2090,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2097,10 +2101,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>75</v>
@@ -2112,16 +2116,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2129,7 +2133,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2171,13 +2175,13 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>75</v>
@@ -2186,15 +2190,15 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2202,10 +2206,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>75</v>
@@ -2217,13 +2221,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2262,53 +2266,53 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>75</v>
@@ -2320,13 +2324,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2353,11 +2357,11 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2375,46 +2379,46 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
@@ -2423,13 +2427,13 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2480,7 +2484,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2492,7 +2496,7 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -2500,10 +2504,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2514,7 +2518,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -2526,13 +2530,13 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2583,13 +2587,13 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
@@ -2598,15 +2602,15 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2629,13 +2633,13 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2674,19 +2678,19 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2698,7 +2702,7 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -2706,10 +2710,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2717,10 +2721,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -2732,16 +2736,16 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2749,7 +2753,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>75</v>
@@ -2791,13 +2795,13 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -2806,15 +2810,15 @@
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2822,10 +2826,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>75</v>
@@ -2837,13 +2841,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2882,53 +2886,53 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -2940,13 +2944,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2973,11 +2977,11 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -2995,30 +2999,30 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3026,10 +3030,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>75</v>
@@ -3041,16 +3045,16 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3100,13 +3104,13 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>75</v>
@@ -3115,15 +3119,15 @@
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3146,13 +3150,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3203,22 +3207,22 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="146">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -285,14 +285,21 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>3</t>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -321,7 +328,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Reference to practitionerrole</t>
+    <t>Reference to practitioner</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>Extension.extension:coprescriber.id</t>
@@ -367,7 +377,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
+    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
 </t>
   </si>
   <si>
@@ -384,25 +394,25 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:coprescriptionStatus</t>
-  </si>
-  <si>
-    <t>coprescriptionStatus</t>
-  </si>
-  <si>
-    <t>Status of coprescription</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.value[x]</t>
+    <t>Extension.extension:coprescriberType</t>
+  </si>
+  <si>
+    <t>coprescriberType</t>
+  </si>
+  <si>
+    <t>Discipline of coprescriber</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriberType.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriberType.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriberType.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriberType.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -416,40 +426,43 @@
     <t>closed</t>
   </si>
   <si>
+    <t>Extension.extension:coprescriberType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>Status of coprescription</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.value[x]</t>
+  </si>
+  <si>
     <t>Extension.extension:coprescriptionStatus.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
-  </si>
-  <si>
-    <t>Extension.extension:required</t>
-  </si>
-  <si>
-    <t>Importance of the signature for the prescription</t>
-  </si>
-  <si>
-    <t>Extension.extension:required.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:required.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:required.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:required.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:required.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescriber-choice</t>
   </si>
   <si>
     <t>base64Binary
@@ -801,7 +814,7 @@
     <col min="1" max="1" width="69.06640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1164,11 +1177,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -1186,12 +1199,14 @@
         <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>75</v>
@@ -1228,19 +1243,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1252,34 +1267,34 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>75</v>
@@ -1291,10 +1306,10 @@
         <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1345,7 +1360,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1357,7 +1372,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1365,10 +1380,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1468,10 +1483,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1500,7 +1515,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1539,19 +1554,19 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1563,7 +1578,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -1571,10 +1586,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1597,16 +1612,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1614,7 +1629,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -1656,7 +1671,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -1671,15 +1686,15 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1702,13 +1717,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1759,7 +1774,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1771,34 +1786,34 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>75</v>
@@ -1810,10 +1825,10 @@
         <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1864,7 +1879,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1876,7 +1891,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1884,10 +1899,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1987,10 +2002,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2019,7 +2034,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2058,19 +2073,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2082,7 +2097,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -2090,10 +2105,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2116,16 +2131,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2133,7 +2148,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2175,7 +2190,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -2190,15 +2205,15 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2206,7 +2221,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>81</v>
@@ -2221,13 +2236,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2266,17 +2281,17 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2288,28 +2303,28 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -2324,13 +2339,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2357,11 +2372,11 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2379,7 +2394,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2391,34 +2406,34 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
@@ -2430,10 +2445,10 @@
         <v>89</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2484,7 +2499,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2496,7 +2511,7 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -2504,10 +2519,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2607,10 +2622,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2639,7 +2654,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2678,19 +2693,19 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2702,7 +2717,7 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -2710,10 +2725,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2736,16 +2751,16 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2753,7 +2768,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>75</v>
@@ -2795,7 +2810,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -2810,15 +2825,15 @@
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2826,7 +2841,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>81</v>
@@ -2841,13 +2856,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2886,17 +2901,17 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2908,28 +2923,28 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>81</v>
@@ -2944,13 +2959,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2977,11 +2992,11 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -2999,7 +3014,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3011,18 +3026,18 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3045,16 +3060,16 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3104,7 +3119,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -3119,15 +3134,15 @@
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3150,13 +3165,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3207,7 +3222,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3219,10 +3234,10 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -285,21 +285,14 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -328,10 +321,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Reference to practitioner</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Reference to practitionerrole</t>
   </si>
   <si>
     <t>Extension.extension:coprescriber.id</t>
@@ -377,7 +367,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CareTeam|HealthcareService|Device|RelatedPerson|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitioner|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-patient|https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-organization)
+    <t xml:space="preserve">Reference(https://www.ehealth.fgov.be/standards/fhir/core/StructureDefinition/be-practitionerrole)
 </t>
   </si>
   <si>
@@ -394,25 +384,25 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:coprescriberType</t>
-  </si>
-  <si>
-    <t>coprescriberType</t>
-  </si>
-  <si>
-    <t>Discipline of coprescriber</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriberType.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriberType.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriberType.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriberType.value[x]</t>
+    <t>Extension.extension:coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>coprescriptionStatus</t>
+  </si>
+  <si>
+    <t>Status of coprescription</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:coprescriptionStatus.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -426,7 +416,7 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Extension.extension:coprescriberType.value[x]:valueCodeableConcept</t>
+    <t>Extension.extension:coprescriptionStatus.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
@@ -435,34 +425,31 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus</t>
-  </si>
-  <si>
-    <t>coprescriptionStatus</t>
-  </si>
-  <si>
-    <t>Status of coprescription</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescription-status</t>
+  </si>
+  <si>
+    <t>Extension.extension:required</t>
+  </si>
+  <si>
+    <t>Importance of the signature for the prescription</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:required.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescriber-choice</t>
   </si>
   <si>
     <t>base64Binary
@@ -814,7 +801,7 @@
     <col min="1" max="1" width="69.06640625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -1177,11 +1164,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -1199,14 +1186,12 @@
         <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="M4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>92</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>75</v>
@@ -1243,19 +1228,19 @@
         <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1267,34 +1252,34 @@
         <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>75</v>
@@ -1306,10 +1291,10 @@
         <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1360,7 +1345,7 @@
         <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1372,7 +1357,7 @@
         <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>75</v>
@@ -1380,10 +1365,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1483,10 +1468,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1515,7 +1500,7 @@
         <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1554,19 +1539,19 @@
         <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1578,7 +1563,7 @@
         <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>75</v>
@@ -1586,10 +1571,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1612,16 +1597,16 @@
         <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1629,7 +1614,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>75</v>
@@ -1671,7 +1656,7 @@
         <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -1686,15 +1671,15 @@
         <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1717,13 +1702,13 @@
         <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1774,7 +1759,7 @@
         <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1786,34 +1771,34 @@
         <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>75</v>
@@ -1825,10 +1810,10 @@
         <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1879,7 +1864,7 @@
         <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1891,7 +1876,7 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>75</v>
@@ -1899,10 +1884,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2002,10 +1987,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2034,7 +2019,7 @@
         <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2073,19 +2058,19 @@
         <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2097,7 +2082,7 @@
         <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>75</v>
@@ -2105,10 +2090,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2131,16 +2116,16 @@
         <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N13" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2148,7 +2133,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>75</v>
@@ -2190,7 +2175,7 @@
         <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -2205,15 +2190,15 @@
         <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2221,7 +2206,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>81</v>
@@ -2236,13 +2221,13 @@
         <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2281,17 +2266,17 @@
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2303,28 +2288,28 @@
         <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -2339,13 +2324,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2372,11 +2357,11 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2394,7 +2379,7 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -2406,34 +2391,34 @@
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>87</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
@@ -2445,10 +2430,10 @@
         <v>89</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2499,7 +2484,7 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2511,7 +2496,7 @@
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>75</v>
@@ -2519,10 +2504,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2622,10 +2607,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2654,7 +2639,7 @@
         <v>29</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2693,19 +2678,19 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -2717,7 +2702,7 @@
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>75</v>
@@ -2725,10 +2710,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2751,16 +2736,16 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -2768,7 +2753,7 @@
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>75</v>
@@ -2810,7 +2795,7 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -2825,15 +2810,15 @@
         <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2841,7 +2826,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>81</v>
@@ -2856,13 +2841,13 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -2901,17 +2886,17 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -2923,28 +2908,28 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>81</v>
@@ -2959,13 +2944,13 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -2992,11 +2977,11 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -3014,7 +2999,7 @@
         <v>75</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -3026,18 +3011,18 @@
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3060,16 +3045,16 @@
         <v>75</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3119,7 +3104,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -3134,15 +3119,15 @@
         <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3165,13 +3150,13 @@
         <v>75</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3222,7 +3207,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3234,10 +3219,10 @@
         <v>75</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$21</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -409,19 +409,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.extension:coprescriptionStatus.value[x]:valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>valueCodeableConcept</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -444,9 +431,6 @@
   </si>
   <si>
     <t>Extension.extension:required.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:required.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>https://www.ehealth.fgov.be/standards/fhir/referral/ValueSet/be-vs-co-prescriber-choice</t>
@@ -789,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -798,9 +782,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="69.06640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.6875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="19.96484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2254,26 +2238,26 @@
         <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC14" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>117</v>
@@ -2299,10 +2283,10 @@
         <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>75</v>
@@ -2315,7 +2299,7 @@
         <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>75</v>
@@ -2324,13 +2308,13 @@
         <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2357,11 +2341,13 @@
         <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y15" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z15" t="s" s="2">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>75</v>
@@ -2379,46 +2365,44 @@
         <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>111</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>75</v>
@@ -2427,13 +2411,13 @@
         <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2484,30 +2468,30 @@
         <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2518,7 +2502,7 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>75</v>
@@ -2530,13 +2514,13 @@
         <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2575,42 +2559,42 @@
         <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2618,10 +2602,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -2633,22 +2617,24 @@
         <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>75</v>
@@ -2678,42 +2664,42 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2736,24 +2722,22 @@
         <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
         <v>75</v>
@@ -2771,13 +2755,11 @@
         <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>75</v>
@@ -2795,10 +2777,10 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>81</v>
@@ -2807,7 +2789,7 @@
         <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>111</v>
@@ -2815,10 +2797,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2841,22 +2823,24 @@
         <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>75</v>
@@ -2886,20 +2870,22 @@
         <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC20" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>81</v>
@@ -2908,7 +2894,7 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>111</v>
@@ -2916,23 +2902,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>130</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
@@ -2944,7 +2928,7 @@
         <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>115</v>
@@ -2977,11 +2961,13 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
@@ -3017,216 +3003,8 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
-      <c r="A23" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>111</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK23">
+  <autoFilter ref="A1:AK21">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3236,7 +3014,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI22">
+  <conditionalFormatting sqref="A2:AI20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$20</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="100">
   <si>
     <t>Property</t>
   </si>
@@ -130,117 +130,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -559,10 +448,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -773,7 +662,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK21"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -785,2226 +674,2111 @@
     <col min="1" max="1" width="48.6875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="83.05078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>60</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AG8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH8" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK8" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>120</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH13" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>83</v>
+        <v>29</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>86</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>134</v>
+        <v>73</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>72</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AH20" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK21">
+  <autoFilter ref="A1:AK20">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3014,7 +2788,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI19">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -149,6 +149,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -195,10 +199,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:coprescriber</t>
@@ -804,7 +804,7 @@
         <v>42</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>38</v>
@@ -812,10 +812,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -826,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -838,13 +838,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -895,13 +895,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -910,15 +910,15 @@
         <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -926,7 +926,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>40</v>
@@ -941,13 +941,13 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -986,19 +986,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1010,7 +1010,7 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -1021,7 +1021,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>60</v>
@@ -1031,10 +1031,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>61</v>
@@ -1046,13 +1046,13 @@
         <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>62</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1103,7 +1103,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1115,7 +1115,7 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -1137,7 +1137,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -1149,13 +1149,13 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1206,13 +1206,13 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
@@ -1221,7 +1221,7 @@
         <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1252,13 +1252,13 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1297,19 +1297,19 @@
         <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
@@ -1321,7 +1321,7 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
@@ -1340,10 +1340,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1417,10 +1417,10 @@
         <v>73</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
@@ -1448,7 +1448,7 @@
         <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>38</v>
@@ -1523,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>38</v>
@@ -1540,7 +1540,7 @@
         <v>82</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>83</v>
@@ -1550,10 +1550,10 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>61</v>
@@ -1565,13 +1565,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>84</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1622,7 +1622,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -1634,7 +1634,7 @@
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1656,7 +1656,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -1668,13 +1668,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1725,13 +1725,13 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
@@ -1740,7 +1740,7 @@
         <v>38</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1771,13 +1771,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1816,19 +1816,19 @@
         <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -1840,7 +1840,7 @@
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -1859,10 +1859,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -1936,10 +1936,10 @@
         <v>73</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
@@ -1964,10 +1964,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2040,7 +2040,7 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
@@ -2057,7 +2057,7 @@
         <v>92</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>90</v>
@@ -2067,10 +2067,10 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>61</v>
@@ -2082,13 +2082,13 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>93</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2139,7 +2139,7 @@
         <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -2151,7 +2151,7 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2173,7 +2173,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2185,13 +2185,13 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2242,13 +2242,13 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
@@ -2257,7 +2257,7 @@
         <v>38</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -2288,13 +2288,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>29</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2333,19 +2333,19 @@
         <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
@@ -2357,7 +2357,7 @@
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2376,10 +2376,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2453,10 +2453,10 @@
         <v>73</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
@@ -2481,10 +2481,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -2557,7 +2557,7 @@
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
@@ -2582,10 +2582,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -2659,10 +2659,10 @@
         <v>73</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
@@ -2765,7 +2765,7 @@
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>

--- a/branches/StructureDefinition-be-co-prescriber.xlsx
+++ b/branches/StructureDefinition-be-co-prescriber.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$21</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -129,7 +129,118 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:Extension</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -662,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -674,2111 +785,2226 @@
     <col min="1" max="1" width="48.6875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="1.04296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="83.05078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>38</v>
+      <c r="G1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y13" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z13" t="s" s="2">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>53</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK20">
+  <autoFilter ref="A1:AK21">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2788,7 +3014,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI19">
+  <conditionalFormatting sqref="A2:AI20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
